--- a/LambdaMART.xlsx
+++ b/LambdaMART.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Shafik/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Shafik/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="LambdaMART" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>NDCG@10 on training data:</t>
   </si>
@@ -40,12 +40,21 @@
   <si>
     <t>Fold</t>
   </si>
+  <si>
+    <t>NDCG@10 on test data</t>
+  </si>
+  <si>
+    <t>ERR@10 on validation data:</t>
+  </si>
+  <si>
+    <t>ERR@10 on train data:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -58,6 +67,21 @@
       <color theme="8" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="8" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -93,16 +117,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="9">
     <dxf>
       <font>
         <strike val="0"/>
@@ -121,6 +151,7 @@
           <bgColor theme="0"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
@@ -140,6 +171,31 @@
           <bgColor theme="0"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -159,6 +215,7 @@
           <bgColor theme="0"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
@@ -178,6 +235,7 @@
           <bgColor theme="0"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
@@ -197,6 +255,51 @@
           <bgColor theme="0"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -217,13 +320,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D6" totalsRowShown="0" headerRowDxfId="5" dataDxfId="0">
-  <autoFilter ref="A1:D6"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="Fold" dataDxfId="4"/>
-    <tableColumn id="2" name="NDCG@10 on training data:" dataDxfId="3"/>
-    <tableColumn id="3" name="NDCG@10 on validation data:" dataDxfId="2"/>
-    <tableColumn id="4" name="ERR@10 on test data:" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G6" totalsRowShown="0" headerRowDxfId="8" dataDxfId="3">
+  <autoFilter ref="A1:G6"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Fold" dataDxfId="7"/>
+    <tableColumn id="2" name="NDCG@10 on training data:" dataDxfId="1"/>
+    <tableColumn id="10" name="ERR@10 on train data:" dataDxfId="2"/>
+    <tableColumn id="3" name="NDCG@10 on validation data:" dataDxfId="0"/>
+    <tableColumn id="7" name="ERR@10 on validation data:" dataDxfId="6"/>
+    <tableColumn id="4" name="NDCG@10 on test data" dataDxfId="5"/>
+    <tableColumn id="8" name="ERR@10 on test data:" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -492,20 +598,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="22.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -513,79 +624,133 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="5">
         <v>0.46329999999999999</v>
       </c>
       <c r="C2" s="3">
+        <v>0.35610000000000003</v>
+      </c>
+      <c r="D2" s="5">
         <v>0.45689999999999997</v>
       </c>
-      <c r="D2" s="3">
+      <c r="E2" s="3">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.44519999999999998</v>
+      </c>
+      <c r="G2" s="5">
         <v>0.34489999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="5">
         <v>0.47620000000000001</v>
       </c>
       <c r="C3" s="3">
+        <v>0.3674</v>
+      </c>
+      <c r="D3" s="5">
         <v>0.4466</v>
       </c>
-      <c r="D3" s="3">
+      <c r="E3" s="3">
+        <v>0.34379999999999999</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.4461</v>
+      </c>
+      <c r="G3" s="5">
         <v>0.33710000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="5">
         <v>0.47899999999999998</v>
       </c>
       <c r="C4" s="3">
+        <v>0.372</v>
+      </c>
+      <c r="D4" s="5">
         <v>0.44740000000000002</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E4" s="3">
+        <v>0.34110000000000001</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.4456</v>
+      </c>
+      <c r="G4" s="5">
         <v>0.33400000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="5">
         <v>0.47449999999999998</v>
       </c>
       <c r="C5" s="3">
+        <v>0.37080000000000002</v>
+      </c>
+      <c r="D5" s="5">
         <v>0.44450000000000001</v>
       </c>
-      <c r="D5" s="3">
+      <c r="E5" s="3">
+        <v>0.33410000000000001</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.45240000000000002</v>
+      </c>
+      <c r="G5" s="5">
         <v>0.34439999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="5">
         <v>0.4728</v>
       </c>
       <c r="C6" s="3">
+        <v>0.36620000000000003</v>
+      </c>
+      <c r="D6" s="5">
         <v>0.45400000000000001</v>
       </c>
-      <c r="D6" s="3">
+      <c r="E6" s="3">
+        <v>0.34460000000000002</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.4582</v>
+      </c>
+      <c r="G6" s="5">
         <v>0.35189999999999999</v>
       </c>
     </row>
